--- a/Proposed IFC mapping for bridge concepts.xlsx
+++ b/Proposed IFC mapping for bridge concepts.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/46a9f9bf925d9b04/Documents/JO Consulting/AASHTO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\TPF-5_372-Unit_Test_Suite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="8_{27E13092-40B4-4F25-B5A9-1367BD613430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3BFC7AD-ECF2-437A-BCD5-315840195B61}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C511BBE-7699-49E4-8C61-D9594A725564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4210" yWindow="50" windowWidth="33730" windowHeight="20760" tabRatio="177" xr2:uid="{49A7BDAD-6780-4B84-88E9-3F690753013E}"/>
+    <workbookView xWindow="460" yWindow="1290" windowWidth="37940" windowHeight="20310" tabRatio="177" xr2:uid="{49A7BDAD-6780-4B84-88E9-3F690753013E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -913,21 +914,213 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -937,246 +1130,147 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1186,74 +1280,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1276,24 +1361,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1311,72 +1378,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1660,8 +1661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5C6886-39D3-4F4E-9CD9-1F633AE49753}">
   <dimension ref="A1:J153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E138" sqref="E138:E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1670,24 +1671,24 @@
     <col min="3" max="3" width="14.58203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.25" style="1" customWidth="1"/>
-    <col min="6" max="7" width="16" style="25" customWidth="1"/>
-    <col min="8" max="8" width="26.4140625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="55.33203125" style="25" customWidth="1"/>
-    <col min="10" max="10" width="98.33203125" style="42" customWidth="1"/>
+    <col min="6" max="7" width="16" style="19" customWidth="1"/>
+    <col min="8" max="8" width="26.4140625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="55.33203125" style="19" customWidth="1"/>
+    <col min="10" max="10" width="98.33203125" style="36" customWidth="1"/>
     <col min="11" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="59"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="52"/>
       <c r="I1" s="2" t="s">
         <v>96</v>
       </c>
@@ -1696,2401 +1697,2403 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="23" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="24"/>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="69"/>
-      <c r="B3" s="71" t="s">
+      <c r="A3" s="66"/>
+      <c r="B3" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="23" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="24"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="69"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="129" t="s">
+      <c r="A4" s="66"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="157" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="23" t="s">
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="69"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="101" t="s">
+      <c r="A5" s="66"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="23" t="s">
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="24"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="69"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="130"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="135" t="s">
+      <c r="A6" s="66"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="131" t="s">
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="28"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="69"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="130"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="54" t="s">
+      <c r="A7" s="66"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="84"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="23" t="s">
+      <c r="G7" s="88"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="28"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="69"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="100" t="s">
+      <c r="A8" s="66"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="158"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="96"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="23" t="s">
+      <c r="G8" s="114"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="24"/>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="69"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="100" t="s">
+      <c r="A9" s="66"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="158"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="124"/>
-      <c r="I9" s="23" t="s">
+      <c r="H9" s="152"/>
+      <c r="I9" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="18" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="69"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="130"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="23" t="s">
+      <c r="A10" s="66"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="158"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="153"/>
+      <c r="I10" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="J10" s="24"/>
+      <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="69"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="136"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="131" t="s">
+      <c r="A11" s="66"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="158"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="154"/>
+      <c r="I11" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="J11" s="132" t="s">
+      <c r="J11" s="41" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="69"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="95" t="s">
+      <c r="A12" s="66"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="158"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="23" t="s">
+      <c r="G12" s="127"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="J12" s="24"/>
+      <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="69"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="134" t="s">
+      <c r="A13" s="66"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="158"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="128" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="134"/>
-      <c r="H13" s="134"/>
-      <c r="I13" s="133" t="s">
+      <c r="G13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="132" t="s">
+      <c r="J13" s="41" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="69"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="95" t="s">
+      <c r="A14" s="66"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="158"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="127" t="s">
         <v>101</v>
       </c>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="23" t="s">
+      <c r="G14" s="127"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="J14" s="28" t="s">
+      <c r="J14" s="22" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="69"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="95" t="s">
+      <c r="A15" s="66"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="23" t="s">
+      <c r="G15" s="127"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="J15" s="28" t="s">
+      <c r="J15" s="22" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="69"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="98" t="s">
+      <c r="A16" s="66"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="96"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="23" t="s">
+      <c r="G16" s="114"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="J16" s="24"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="69"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="55" t="s">
+      <c r="A17" s="66"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="158"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="123"/>
-      <c r="I17" s="23" t="s">
+      <c r="H17" s="126"/>
+      <c r="I17" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J17" s="24" t="s">
+      <c r="J17" s="18" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="69"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="130"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="23" t="s">
+      <c r="A18" s="66"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="158"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="J18" s="24"/>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="69"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="130"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="113" t="s">
+      <c r="A19" s="66"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="158"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="116" t="s">
         <v>128</v>
       </c>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="121"/>
-      <c r="I19" s="23" t="s">
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="24"/>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="69"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="130"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="46" t="s">
+      <c r="A20" s="66"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="158"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="48"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="23" t="s">
+      <c r="G20" s="71"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="24" t="s">
+      <c r="J20" s="18" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="69"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="23" t="s">
+      <c r="A21" s="66"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="158"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="J21" s="24"/>
+      <c r="J21" s="18"/>
     </row>
     <row r="22" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="69"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="130"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="48" t="s">
+      <c r="A22" s="66"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="158"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="74"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="23" t="s">
+      <c r="G22" s="72"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="J22" s="24"/>
+      <c r="J22" s="18"/>
     </row>
     <row r="23" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="69"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="130"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="48" t="s">
+      <c r="A23" s="66"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="158"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="G23" s="74"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="23" t="s">
+      <c r="G23" s="72"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="J23" s="28" t="s">
+      <c r="J23" s="22" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="69"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="130"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="48" t="s">
+      <c r="A24" s="66"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="158"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="74"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="23" t="s">
+      <c r="G24" s="72"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="J24" s="28" t="s">
+      <c r="J24" s="22" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="69"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="130"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="116" t="s">
+      <c r="A25" s="66"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="158"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="120"/>
-      <c r="G25" s="120"/>
-      <c r="H25" s="121"/>
-      <c r="I25" s="23" t="s">
+      <c r="F25" s="123"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="124"/>
+      <c r="I25" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="J25" s="24" t="s">
+      <c r="J25" s="18" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="69"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="130"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="117"/>
-      <c r="F26" s="48" t="s">
+      <c r="A26" s="66"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="158"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="74"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="23" t="s">
+      <c r="G26" s="72"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="J26" s="24"/>
+      <c r="J26" s="18"/>
     </row>
     <row r="27" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="69"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="130"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="117"/>
-      <c r="F27" s="48" t="s">
+      <c r="A27" s="66"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="158"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="G27" s="74"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="23" t="s">
+      <c r="G27" s="72"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="J27" s="24"/>
+      <c r="J27" s="18"/>
     </row>
     <row r="28" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="69"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="130"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="118"/>
-      <c r="F28" s="48" t="s">
+      <c r="A28" s="66"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="158"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="G28" s="74"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="23" t="s">
+      <c r="G28" s="72"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="J28" s="24"/>
+      <c r="J28" s="18"/>
     </row>
     <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="69"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="116" t="s">
+      <c r="A29" s="66"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="158"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="122"/>
-      <c r="G29" s="122"/>
-      <c r="H29" s="123"/>
-      <c r="I29" s="23" t="s">
+      <c r="F29" s="125"/>
+      <c r="G29" s="125"/>
+      <c r="H29" s="126"/>
+      <c r="I29" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="J29" s="24" t="s">
+      <c r="J29" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="69"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="130"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="54" t="s">
+      <c r="A30" s="66"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="158"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="G30" s="74"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="23" t="s">
+      <c r="G30" s="72"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="J30" s="24"/>
+      <c r="J30" s="18"/>
     </row>
     <row r="31" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="69"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="130"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="117"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="48" t="s">
+      <c r="A31" s="66"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="158"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="120"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="49"/>
-      <c r="I31" s="23" t="s">
+      <c r="H31" s="73"/>
+      <c r="I31" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="J31" s="24"/>
+      <c r="J31" s="18"/>
     </row>
     <row r="32" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="69"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="130"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="117"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="48" t="s">
+      <c r="A32" s="66"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="158"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="120"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="H32" s="49"/>
-      <c r="I32" s="23" t="s">
+      <c r="H32" s="73"/>
+      <c r="I32" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="J32" s="24"/>
+      <c r="J32" s="18"/>
     </row>
     <row r="33" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="69"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="130"/>
-      <c r="D33" s="102"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="48" t="s">
+      <c r="A33" s="66"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="158"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="120"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="H33" s="49"/>
-      <c r="I33" s="23" t="s">
+      <c r="H33" s="73"/>
+      <c r="I33" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="J33" s="24"/>
+      <c r="J33" s="18"/>
     </row>
     <row r="34" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="69"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="130"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="48" t="s">
+      <c r="A34" s="66"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="158"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="120"/>
+      <c r="F34" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="G34" s="74"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="23" t="s">
+      <c r="G34" s="72"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="J34" s="24"/>
+      <c r="J34" s="18"/>
     </row>
     <row r="35" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="69"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="130"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="117"/>
-      <c r="F35" s="48" t="s">
+      <c r="A35" s="66"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="158"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="120"/>
+      <c r="F35" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="G35" s="74"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="23" t="s">
+      <c r="G35" s="72"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="J35" s="24"/>
+      <c r="J35" s="18"/>
     </row>
     <row r="36" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="69"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="130"/>
-      <c r="D36" s="102"/>
-      <c r="E36" s="118"/>
-      <c r="F36" s="48" t="s">
+      <c r="A36" s="66"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="158"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="121"/>
+      <c r="F36" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="G36" s="74"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="23" t="s">
+      <c r="G36" s="72"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="J36" s="24"/>
+      <c r="J36" s="18"/>
     </row>
     <row r="37" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="69"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="130"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="116" t="s">
+      <c r="A37" s="66"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="158"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="93"/>
-      <c r="G37" s="93"/>
-      <c r="H37" s="94"/>
-      <c r="I37" s="23" t="s">
+      <c r="F37" s="97"/>
+      <c r="G37" s="97"/>
+      <c r="H37" s="98"/>
+      <c r="I37" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="J37" s="24"/>
+      <c r="J37" s="18"/>
     </row>
     <row r="38" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="69"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="130"/>
-      <c r="D38" s="102"/>
-      <c r="E38" s="117"/>
-      <c r="F38" s="48" t="s">
+      <c r="A38" s="66"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="158"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="120"/>
+      <c r="F38" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="G38" s="74"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="23" t="s">
+      <c r="G38" s="72"/>
+      <c r="H38" s="73"/>
+      <c r="I38" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="J38" s="24"/>
+      <c r="J38" s="18"/>
     </row>
     <row r="39" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="69"/>
-      <c r="B39" s="72"/>
-      <c r="C39" s="130"/>
-      <c r="D39" s="102"/>
-      <c r="E39" s="117"/>
-      <c r="F39" s="46" t="s">
+      <c r="A39" s="66"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="158"/>
+      <c r="D39" s="103"/>
+      <c r="E39" s="120"/>
+      <c r="F39" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="G39" s="48"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="23" t="s">
+      <c r="G39" s="71"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="J39" s="24"/>
+      <c r="J39" s="18"/>
     </row>
     <row r="40" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="69"/>
-      <c r="B40" s="72"/>
-      <c r="C40" s="130"/>
-      <c r="D40" s="102"/>
-      <c r="E40" s="117"/>
+      <c r="A40" s="66"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="158"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="120"/>
       <c r="F40" s="75"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="131" t="s">
+      <c r="G40" s="71"/>
+      <c r="H40" s="73"/>
+      <c r="I40" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="J40" s="132" t="s">
+      <c r="J40" s="41" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="69"/>
-      <c r="B41" s="72"/>
-      <c r="C41" s="130"/>
-      <c r="D41" s="102"/>
-      <c r="E41" s="117"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="23" t="s">
+      <c r="A41" s="66"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="158"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="120"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J41" s="24" t="s">
+      <c r="J41" s="18" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="69"/>
-      <c r="B42" s="72"/>
-      <c r="C42" s="130"/>
-      <c r="D42" s="102"/>
-      <c r="E42" s="117"/>
-      <c r="F42" s="88" t="s">
+      <c r="A42" s="66"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="158"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="120"/>
+      <c r="F42" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="G42" s="91"/>
-      <c r="H42" s="92"/>
-      <c r="I42" s="23" t="s">
+      <c r="G42" s="95"/>
+      <c r="H42" s="96"/>
+      <c r="I42" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="J42" s="24"/>
+      <c r="J42" s="18"/>
     </row>
     <row r="43" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="69"/>
-      <c r="B43" s="72"/>
-      <c r="C43" s="130"/>
-      <c r="D43" s="102"/>
-      <c r="E43" s="117"/>
-      <c r="F43" s="89"/>
-      <c r="G43" s="91"/>
-      <c r="H43" s="92"/>
-      <c r="I43" s="23" t="s">
+      <c r="A43" s="66"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="158"/>
+      <c r="D43" s="103"/>
+      <c r="E43" s="120"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="J43" s="24"/>
+      <c r="J43" s="18"/>
     </row>
     <row r="44" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="69"/>
-      <c r="B44" s="72"/>
-      <c r="C44" s="130"/>
-      <c r="D44" s="102"/>
-      <c r="E44" s="117"/>
-      <c r="F44" s="90"/>
-      <c r="G44" s="91"/>
-      <c r="H44" s="92"/>
-      <c r="I44" s="23" t="s">
+      <c r="A44" s="66"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="158"/>
+      <c r="D44" s="103"/>
+      <c r="E44" s="120"/>
+      <c r="F44" s="94"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="96"/>
+      <c r="I44" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="J44" s="24" t="s">
+      <c r="J44" s="18" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="69"/>
-      <c r="B45" s="72"/>
-      <c r="C45" s="130"/>
-      <c r="D45" s="102"/>
-      <c r="E45" s="118"/>
-      <c r="F45" s="48" t="s">
+      <c r="A45" s="66"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="158"/>
+      <c r="D45" s="103"/>
+      <c r="E45" s="121"/>
+      <c r="F45" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="G45" s="74"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="23" t="s">
+      <c r="G45" s="72"/>
+      <c r="H45" s="73"/>
+      <c r="I45" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="J45" s="24"/>
+      <c r="J45" s="18"/>
     </row>
     <row r="46" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="69"/>
-      <c r="B46" s="72"/>
-      <c r="C46" s="130"/>
-      <c r="D46" s="102"/>
-      <c r="E46" s="81" t="s">
+      <c r="A46" s="66"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="158"/>
+      <c r="D46" s="103"/>
+      <c r="E46" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="F46" s="93"/>
-      <c r="G46" s="93"/>
-      <c r="H46" s="94"/>
-      <c r="I46" s="23" t="s">
+      <c r="F46" s="97"/>
+      <c r="G46" s="97"/>
+      <c r="H46" s="98"/>
+      <c r="I46" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="J46" s="24"/>
+      <c r="J46" s="18"/>
     </row>
     <row r="47" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="69"/>
-      <c r="B47" s="72"/>
-      <c r="C47" s="130"/>
-      <c r="D47" s="102"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="48" t="s">
+      <c r="A47" s="66"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="158"/>
+      <c r="D47" s="103"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="G47" s="74"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="23" t="s">
+      <c r="G47" s="72"/>
+      <c r="H47" s="73"/>
+      <c r="I47" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="J47" s="24" t="s">
+      <c r="J47" s="18" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="69"/>
-      <c r="B48" s="72"/>
-      <c r="C48" s="130"/>
-      <c r="D48" s="102"/>
-      <c r="E48" s="82"/>
-      <c r="F48" s="84" t="s">
+      <c r="A48" s="66"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="158"/>
+      <c r="D48" s="103"/>
+      <c r="E48" s="86"/>
+      <c r="F48" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="G48" s="84"/>
-      <c r="H48" s="85"/>
-      <c r="I48" s="23" t="s">
+      <c r="G48" s="88"/>
+      <c r="H48" s="89"/>
+      <c r="I48" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="J48" s="24"/>
+      <c r="J48" s="18"/>
     </row>
     <row r="49" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="69"/>
-      <c r="B49" s="72"/>
-      <c r="C49" s="130"/>
-      <c r="D49" s="102"/>
-      <c r="E49" s="83"/>
-      <c r="F49" s="86"/>
-      <c r="G49" s="86"/>
-      <c r="H49" s="87"/>
-      <c r="I49" s="131" t="s">
+      <c r="A49" s="66"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="158"/>
+      <c r="D49" s="103"/>
+      <c r="E49" s="87"/>
+      <c r="F49" s="90"/>
+      <c r="G49" s="90"/>
+      <c r="H49" s="91"/>
+      <c r="I49" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="J49" s="24"/>
+      <c r="J49" s="18"/>
     </row>
     <row r="50" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="69"/>
-      <c r="B50" s="72"/>
-      <c r="C50" s="130"/>
-      <c r="D50" s="102"/>
-      <c r="E50" s="116" t="s">
+      <c r="A50" s="66"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="158"/>
+      <c r="D50" s="103"/>
+      <c r="E50" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="F50" s="119"/>
-      <c r="G50" s="96"/>
-      <c r="H50" s="97"/>
-      <c r="I50" s="23" t="s">
+      <c r="F50" s="122"/>
+      <c r="G50" s="114"/>
+      <c r="H50" s="115"/>
+      <c r="I50" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="J50" s="24"/>
+      <c r="J50" s="18"/>
     </row>
     <row r="51" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="69"/>
-      <c r="B51" s="72"/>
-      <c r="C51" s="130"/>
-      <c r="D51" s="102"/>
-      <c r="E51" s="117"/>
-      <c r="F51" s="48" t="s">
+      <c r="A51" s="66"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="158"/>
+      <c r="D51" s="103"/>
+      <c r="E51" s="120"/>
+      <c r="F51" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="G51" s="74"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="131" t="s">
+      <c r="G51" s="72"/>
+      <c r="H51" s="73"/>
+      <c r="I51" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="J51" s="28" t="s">
+      <c r="J51" s="22" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="69"/>
-      <c r="B52" s="72"/>
-      <c r="C52" s="130"/>
-      <c r="D52" s="102"/>
-      <c r="E52" s="118"/>
-      <c r="F52" s="48" t="s">
+      <c r="A52" s="66"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="158"/>
+      <c r="D52" s="103"/>
+      <c r="E52" s="121"/>
+      <c r="F52" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="G52" s="74"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="131" t="s">
+      <c r="G52" s="72"/>
+      <c r="H52" s="73"/>
+      <c r="I52" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="J52" s="28" t="s">
+      <c r="J52" s="22" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="69"/>
-      <c r="B53" s="72"/>
-      <c r="C53" s="130"/>
-      <c r="D53" s="102"/>
-      <c r="E53" s="110" t="s">
+      <c r="A53" s="66"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="158"/>
+      <c r="D53" s="103"/>
+      <c r="E53" s="111" t="s">
         <v>104</v>
       </c>
-      <c r="F53" s="74"/>
-      <c r="G53" s="74"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="23" t="s">
+      <c r="F53" s="72"/>
+      <c r="G53" s="72"/>
+      <c r="H53" s="73"/>
+      <c r="I53" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="J53" s="24"/>
+      <c r="J53" s="18"/>
     </row>
     <row r="54" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="69"/>
-      <c r="B54" s="72"/>
-      <c r="C54" s="130"/>
-      <c r="D54" s="102"/>
-      <c r="E54" s="111"/>
-      <c r="F54" s="95"/>
-      <c r="G54" s="95"/>
-      <c r="H54" s="95"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="24"/>
+      <c r="A54" s="66"/>
+      <c r="B54" s="69"/>
+      <c r="C54" s="158"/>
+      <c r="D54" s="103"/>
+      <c r="E54" s="112"/>
+      <c r="F54" s="127"/>
+      <c r="G54" s="127"/>
+      <c r="H54" s="127"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="18"/>
     </row>
     <row r="55" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="69"/>
-      <c r="B55" s="72"/>
-      <c r="C55" s="130"/>
-      <c r="D55" s="103"/>
-      <c r="E55" s="112"/>
-      <c r="F55" s="95"/>
-      <c r="G55" s="95"/>
-      <c r="H55" s="95"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="24"/>
+      <c r="A55" s="66"/>
+      <c r="B55" s="69"/>
+      <c r="C55" s="158"/>
+      <c r="D55" s="104"/>
+      <c r="E55" s="113"/>
+      <c r="F55" s="127"/>
+      <c r="G55" s="127"/>
+      <c r="H55" s="127"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="18"/>
     </row>
     <row r="56" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="69"/>
-      <c r="B56" s="72"/>
-      <c r="C56" s="130"/>
-      <c r="D56" s="104" t="s">
+      <c r="A56" s="66"/>
+      <c r="B56" s="69"/>
+      <c r="C56" s="158"/>
+      <c r="D56" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="E56" s="50"/>
-      <c r="F56" s="50"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="51"/>
-      <c r="I56" s="23" t="s">
+      <c r="E56" s="132"/>
+      <c r="F56" s="132"/>
+      <c r="G56" s="132"/>
+      <c r="H56" s="133"/>
+      <c r="I56" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J56" s="24"/>
+      <c r="J56" s="18"/>
     </row>
     <row r="57" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="69"/>
-      <c r="B57" s="72"/>
-      <c r="C57" s="130"/>
-      <c r="D57" s="105"/>
+      <c r="A57" s="66"/>
+      <c r="B57" s="69"/>
+      <c r="C57" s="158"/>
+      <c r="D57" s="106"/>
       <c r="E57" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F57" s="52"/>
-      <c r="G57" s="52"/>
-      <c r="H57" s="53"/>
-      <c r="I57" s="23" t="s">
+      <c r="F57" s="61"/>
+      <c r="G57" s="61"/>
+      <c r="H57" s="62"/>
+      <c r="I57" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="J57" s="28"/>
+      <c r="J57" s="22"/>
     </row>
     <row r="58" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="69"/>
-      <c r="B58" s="72"/>
-      <c r="C58" s="130"/>
-      <c r="D58" s="105"/>
+      <c r="A58" s="66"/>
+      <c r="B58" s="69"/>
+      <c r="C58" s="158"/>
+      <c r="D58" s="106"/>
       <c r="E58" s="7"/>
-      <c r="F58" s="48" t="s">
+      <c r="F58" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="G58" s="74"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="23" t="s">
+      <c r="G58" s="72"/>
+      <c r="H58" s="73"/>
+      <c r="I58" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="J58" s="24" t="s">
+      <c r="J58" s="18" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="69"/>
-      <c r="B59" s="72"/>
-      <c r="C59" s="130"/>
-      <c r="D59" s="105"/>
+      <c r="A59" s="66"/>
+      <c r="B59" s="69"/>
+      <c r="C59" s="158"/>
+      <c r="D59" s="106"/>
       <c r="E59" s="7"/>
-      <c r="F59" s="48" t="s">
+      <c r="F59" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="G59" s="74"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="23" t="s">
+      <c r="G59" s="72"/>
+      <c r="H59" s="73"/>
+      <c r="I59" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="J59" s="24"/>
+      <c r="J59" s="18"/>
     </row>
     <row r="60" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="69"/>
-      <c r="B60" s="72"/>
-      <c r="C60" s="130"/>
-      <c r="D60" s="105"/>
+      <c r="A60" s="66"/>
+      <c r="B60" s="69"/>
+      <c r="C60" s="158"/>
+      <c r="D60" s="106"/>
       <c r="E60" s="7"/>
-      <c r="F60" s="54" t="s">
+      <c r="F60" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="G60" s="96"/>
-      <c r="H60" s="97"/>
-      <c r="I60" s="23" t="s">
+      <c r="G60" s="114"/>
+      <c r="H60" s="115"/>
+      <c r="I60" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="J60" s="24"/>
+      <c r="J60" s="18"/>
     </row>
     <row r="61" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="69"/>
-      <c r="B61" s="72"/>
-      <c r="C61" s="130"/>
-      <c r="D61" s="105"/>
+      <c r="A61" s="66"/>
+      <c r="B61" s="69"/>
+      <c r="C61" s="158"/>
+      <c r="D61" s="106"/>
       <c r="E61" s="7"/>
-      <c r="F61" s="55"/>
-      <c r="G61" s="76" t="s">
+      <c r="F61" s="100"/>
+      <c r="G61" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="H61" s="40"/>
-      <c r="I61" s="23" t="s">
+      <c r="H61" s="34"/>
+      <c r="I61" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J61" s="24" t="s">
+      <c r="J61" s="18" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="69"/>
-      <c r="B62" s="72"/>
-      <c r="C62" s="130"/>
-      <c r="D62" s="105"/>
+      <c r="A62" s="66"/>
+      <c r="B62" s="69"/>
+      <c r="C62" s="158"/>
+      <c r="D62" s="106"/>
       <c r="E62" s="7"/>
-      <c r="F62" s="55"/>
-      <c r="G62" s="77"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="23" t="s">
+      <c r="F62" s="100"/>
+      <c r="G62" s="78"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="J62" s="24"/>
+      <c r="J62" s="18"/>
     </row>
     <row r="63" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="69"/>
-      <c r="B63" s="72"/>
-      <c r="C63" s="130"/>
-      <c r="D63" s="105"/>
+      <c r="A63" s="66"/>
+      <c r="B63" s="69"/>
+      <c r="C63" s="158"/>
+      <c r="D63" s="106"/>
       <c r="E63" s="7"/>
-      <c r="F63" s="55"/>
-      <c r="G63" s="46" t="s">
+      <c r="F63" s="100"/>
+      <c r="G63" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="H63" s="23"/>
-      <c r="I63" s="23" t="s">
+      <c r="H63" s="17"/>
+      <c r="I63" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="J63" s="24"/>
+      <c r="J63" s="18"/>
     </row>
     <row r="64" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="69"/>
-      <c r="B64" s="72"/>
-      <c r="C64" s="130"/>
-      <c r="D64" s="105"/>
+      <c r="A64" s="66"/>
+      <c r="B64" s="69"/>
+      <c r="C64" s="158"/>
+      <c r="D64" s="106"/>
       <c r="E64" s="7"/>
-      <c r="F64" s="55"/>
-      <c r="G64" s="47"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="23" t="s">
+      <c r="F64" s="100"/>
+      <c r="G64" s="76"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="J64" s="24" t="s">
+      <c r="J64" s="18" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="69"/>
-      <c r="B65" s="72"/>
-      <c r="C65" s="130"/>
-      <c r="D65" s="105"/>
+      <c r="A65" s="66"/>
+      <c r="B65" s="69"/>
+      <c r="C65" s="158"/>
+      <c r="D65" s="106"/>
       <c r="E65" s="7"/>
-      <c r="F65" s="56"/>
-      <c r="G65" s="48" t="s">
+      <c r="F65" s="101"/>
+      <c r="G65" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="H65" s="49"/>
-      <c r="I65" s="23" t="s">
+      <c r="H65" s="73"/>
+      <c r="I65" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="J65" s="24"/>
+      <c r="J65" s="18"/>
     </row>
     <row r="66" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="69"/>
-      <c r="B66" s="72"/>
-      <c r="C66" s="130"/>
-      <c r="D66" s="105"/>
+      <c r="A66" s="66"/>
+      <c r="B66" s="69"/>
+      <c r="C66" s="158"/>
+      <c r="D66" s="106"/>
       <c r="E66" s="7"/>
-      <c r="F66" s="100" t="s">
+      <c r="F66" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="G66" s="96"/>
-      <c r="H66" s="97"/>
-      <c r="I66" s="23" t="s">
+      <c r="G66" s="114"/>
+      <c r="H66" s="115"/>
+      <c r="I66" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="J66" s="24"/>
+      <c r="J66" s="18"/>
     </row>
     <row r="67" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="69"/>
-      <c r="B67" s="72"/>
-      <c r="C67" s="130"/>
-      <c r="D67" s="105"/>
+      <c r="A67" s="66"/>
+      <c r="B67" s="69"/>
+      <c r="C67" s="158"/>
+      <c r="D67" s="106"/>
       <c r="E67" s="7"/>
-      <c r="F67" s="98"/>
-      <c r="G67" s="46" t="s">
+      <c r="F67" s="129"/>
+      <c r="G67" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="H67" s="23"/>
-      <c r="I67" s="23" t="s">
+      <c r="H67" s="17"/>
+      <c r="I67" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J67" s="24" t="s">
+      <c r="J67" s="18" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="69"/>
-      <c r="B68" s="72"/>
-      <c r="C68" s="130"/>
-      <c r="D68" s="105"/>
+      <c r="A68" s="66"/>
+      <c r="B68" s="69"/>
+      <c r="C68" s="158"/>
+      <c r="D68" s="106"/>
       <c r="E68" s="7"/>
-      <c r="F68" s="98"/>
-      <c r="G68" s="47"/>
-      <c r="H68" s="23"/>
-      <c r="I68" s="23" t="s">
+      <c r="F68" s="129"/>
+      <c r="G68" s="76"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="J68" s="24"/>
+      <c r="J68" s="18"/>
     </row>
     <row r="69" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="69"/>
-      <c r="B69" s="72"/>
-      <c r="C69" s="130"/>
-      <c r="D69" s="105"/>
+      <c r="A69" s="66"/>
+      <c r="B69" s="69"/>
+      <c r="C69" s="158"/>
+      <c r="D69" s="106"/>
       <c r="E69" s="7"/>
-      <c r="F69" s="98"/>
-      <c r="G69" s="46" t="s">
+      <c r="F69" s="129"/>
+      <c r="G69" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="H69" s="23"/>
-      <c r="I69" s="23" t="s">
+      <c r="H69" s="17"/>
+      <c r="I69" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="J69" s="24"/>
+      <c r="J69" s="18"/>
     </row>
     <row r="70" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="69"/>
-      <c r="B70" s="72"/>
-      <c r="C70" s="130"/>
-      <c r="D70" s="105"/>
+      <c r="A70" s="66"/>
+      <c r="B70" s="69"/>
+      <c r="C70" s="158"/>
+      <c r="D70" s="106"/>
       <c r="E70" s="7"/>
-      <c r="F70" s="98"/>
-      <c r="G70" s="47"/>
-      <c r="H70" s="23"/>
-      <c r="I70" s="23" t="s">
+      <c r="F70" s="129"/>
+      <c r="G70" s="76"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="J70" s="24" t="s">
+      <c r="J70" s="18" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="69"/>
-      <c r="B71" s="72"/>
-      <c r="C71" s="130"/>
-      <c r="D71" s="105"/>
+      <c r="A71" s="66"/>
+      <c r="B71" s="69"/>
+      <c r="C71" s="158"/>
+      <c r="D71" s="106"/>
       <c r="E71" s="7"/>
-      <c r="F71" s="99"/>
-      <c r="G71" s="48" t="s">
+      <c r="F71" s="130"/>
+      <c r="G71" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="H71" s="49"/>
-      <c r="I71" s="23" t="s">
+      <c r="H71" s="73"/>
+      <c r="I71" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="J71" s="24"/>
+      <c r="J71" s="18"/>
     </row>
     <row r="72" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="69"/>
-      <c r="B72" s="72"/>
-      <c r="C72" s="130"/>
-      <c r="D72" s="105"/>
+      <c r="A72" s="66"/>
+      <c r="B72" s="69"/>
+      <c r="C72" s="158"/>
+      <c r="D72" s="106"/>
       <c r="E72" s="7"/>
-      <c r="F72" s="107" t="s">
+      <c r="F72" s="108" t="s">
         <v>100</v>
       </c>
-      <c r="G72" s="96"/>
-      <c r="H72" s="97"/>
-      <c r="I72" s="23" t="s">
+      <c r="G72" s="114"/>
+      <c r="H72" s="115"/>
+      <c r="I72" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="J72" s="24"/>
+      <c r="J72" s="18"/>
     </row>
     <row r="73" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="69"/>
-      <c r="B73" s="72"/>
-      <c r="C73" s="130"/>
-      <c r="D73" s="105"/>
+      <c r="A73" s="66"/>
+      <c r="B73" s="69"/>
+      <c r="C73" s="158"/>
+      <c r="D73" s="106"/>
       <c r="E73" s="7"/>
-      <c r="F73" s="108"/>
-      <c r="G73" s="46" t="s">
+      <c r="F73" s="109"/>
+      <c r="G73" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="H73" s="23"/>
-      <c r="I73" s="23" t="s">
+      <c r="H73" s="17"/>
+      <c r="I73" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J73" s="24" t="s">
+      <c r="J73" s="18" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="69"/>
-      <c r="B74" s="72"/>
-      <c r="C74" s="130"/>
-      <c r="D74" s="105"/>
+      <c r="A74" s="66"/>
+      <c r="B74" s="69"/>
+      <c r="C74" s="158"/>
+      <c r="D74" s="106"/>
       <c r="E74" s="7"/>
-      <c r="F74" s="108"/>
-      <c r="G74" s="47"/>
-      <c r="H74" s="23"/>
-      <c r="I74" s="23" t="s">
+      <c r="F74" s="109"/>
+      <c r="G74" s="76"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="J74" s="24"/>
+      <c r="J74" s="18"/>
     </row>
     <row r="75" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="69"/>
-      <c r="B75" s="72"/>
-      <c r="C75" s="130"/>
-      <c r="D75" s="105"/>
+      <c r="A75" s="66"/>
+      <c r="B75" s="69"/>
+      <c r="C75" s="158"/>
+      <c r="D75" s="106"/>
       <c r="E75" s="7"/>
-      <c r="F75" s="108"/>
-      <c r="G75" s="46" t="s">
+      <c r="F75" s="109"/>
+      <c r="G75" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="H75" s="23"/>
-      <c r="I75" s="23" t="s">
+      <c r="H75" s="17"/>
+      <c r="I75" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="J75" s="24"/>
+      <c r="J75" s="18"/>
     </row>
     <row r="76" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="69"/>
-      <c r="B76" s="72"/>
-      <c r="C76" s="130"/>
-      <c r="D76" s="105"/>
+      <c r="A76" s="66"/>
+      <c r="B76" s="69"/>
+      <c r="C76" s="158"/>
+      <c r="D76" s="106"/>
       <c r="E76" s="7"/>
-      <c r="F76" s="108"/>
-      <c r="G76" s="47"/>
-      <c r="H76" s="23"/>
-      <c r="I76" s="23" t="s">
+      <c r="F76" s="109"/>
+      <c r="G76" s="76"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="J76" s="24" t="s">
+      <c r="J76" s="18" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="69"/>
-      <c r="B77" s="72"/>
-      <c r="C77" s="130"/>
-      <c r="D77" s="105"/>
+      <c r="A77" s="66"/>
+      <c r="B77" s="69"/>
+      <c r="C77" s="158"/>
+      <c r="D77" s="106"/>
       <c r="E77" s="7"/>
-      <c r="F77" s="109"/>
-      <c r="G77" s="48" t="s">
+      <c r="F77" s="110"/>
+      <c r="G77" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="H77" s="49"/>
-      <c r="I77" s="23" t="s">
+      <c r="H77" s="73"/>
+      <c r="I77" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="J77" s="24"/>
+      <c r="J77" s="18"/>
     </row>
     <row r="78" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="69"/>
-      <c r="B78" s="72"/>
-      <c r="C78" s="130"/>
-      <c r="D78" s="105"/>
+      <c r="A78" s="66"/>
+      <c r="B78" s="69"/>
+      <c r="C78" s="158"/>
+      <c r="D78" s="106"/>
       <c r="E78" s="7"/>
-      <c r="F78" s="137" t="s">
+      <c r="F78" s="159" t="s">
         <v>129</v>
       </c>
-      <c r="G78" s="127"/>
-      <c r="H78" s="128"/>
-      <c r="I78" s="45" t="s">
+      <c r="G78" s="155"/>
+      <c r="H78" s="156"/>
+      <c r="I78" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="J78" s="24"/>
+      <c r="J78" s="18"/>
     </row>
     <row r="79" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="69"/>
-      <c r="B79" s="72"/>
-      <c r="C79" s="130"/>
-      <c r="D79" s="105"/>
+      <c r="A79" s="66"/>
+      <c r="B79" s="69"/>
+      <c r="C79" s="158"/>
+      <c r="D79" s="106"/>
       <c r="E79" s="7"/>
-      <c r="F79" s="138"/>
-      <c r="G79" s="54" t="s">
+      <c r="F79" s="160"/>
+      <c r="G79" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="H79" s="32"/>
-      <c r="I79" s="23" t="s">
+      <c r="H79" s="26"/>
+      <c r="I79" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="J79" s="24"/>
+      <c r="J79" s="18"/>
     </row>
     <row r="80" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="69"/>
-      <c r="B80" s="72"/>
-      <c r="C80" s="130"/>
-      <c r="D80" s="105"/>
+      <c r="A80" s="66"/>
+      <c r="B80" s="69"/>
+      <c r="C80" s="158"/>
+      <c r="D80" s="106"/>
       <c r="E80" s="7"/>
-      <c r="F80" s="138"/>
-      <c r="G80" s="55"/>
-      <c r="H80" s="46" t="s">
+      <c r="F80" s="160"/>
+      <c r="G80" s="100"/>
+      <c r="H80" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="I80" s="23" t="s">
+      <c r="I80" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J80" s="24" t="s">
+      <c r="J80" s="18" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="69"/>
-      <c r="B81" s="72"/>
-      <c r="C81" s="130"/>
-      <c r="D81" s="105"/>
+      <c r="A81" s="66"/>
+      <c r="B81" s="69"/>
+      <c r="C81" s="158"/>
+      <c r="D81" s="106"/>
       <c r="E81" s="7"/>
-      <c r="F81" s="138"/>
-      <c r="G81" s="55"/>
-      <c r="H81" s="47"/>
-      <c r="I81" s="23" t="s">
+      <c r="F81" s="160"/>
+      <c r="G81" s="100"/>
+      <c r="H81" s="76"/>
+      <c r="I81" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="J81" s="24"/>
+      <c r="J81" s="18"/>
     </row>
     <row r="82" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="69"/>
-      <c r="B82" s="72"/>
-      <c r="C82" s="130"/>
-      <c r="D82" s="105"/>
+      <c r="A82" s="66"/>
+      <c r="B82" s="69"/>
+      <c r="C82" s="158"/>
+      <c r="D82" s="106"/>
       <c r="E82" s="7"/>
-      <c r="F82" s="138"/>
-      <c r="G82" s="55"/>
-      <c r="H82" s="46" t="s">
+      <c r="F82" s="160"/>
+      <c r="G82" s="100"/>
+      <c r="H82" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="I82" s="23" t="s">
+      <c r="I82" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="J82" s="24"/>
+      <c r="J82" s="18"/>
     </row>
     <row r="83" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="69"/>
-      <c r="B83" s="72"/>
-      <c r="C83" s="130"/>
-      <c r="D83" s="105"/>
+      <c r="A83" s="66"/>
+      <c r="B83" s="69"/>
+      <c r="C83" s="158"/>
+      <c r="D83" s="106"/>
       <c r="E83" s="7"/>
-      <c r="F83" s="138"/>
-      <c r="G83" s="56"/>
-      <c r="H83" s="47"/>
-      <c r="I83" s="23" t="s">
+      <c r="F83" s="160"/>
+      <c r="G83" s="101"/>
+      <c r="H83" s="76"/>
+      <c r="I83" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="J83" s="24" t="s">
+      <c r="J83" s="18" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="69"/>
-      <c r="B84" s="72"/>
-      <c r="C84" s="130"/>
-      <c r="D84" s="105"/>
+      <c r="A84" s="66"/>
+      <c r="B84" s="69"/>
+      <c r="C84" s="158"/>
+      <c r="D84" s="106"/>
       <c r="E84" s="7"/>
-      <c r="F84" s="138"/>
-      <c r="G84" s="54" t="s">
+      <c r="F84" s="160"/>
+      <c r="G84" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="H84" s="32"/>
-      <c r="I84" s="23" t="s">
+      <c r="H84" s="26"/>
+      <c r="I84" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="J84" s="24" t="s">
+      <c r="J84" s="18" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="69"/>
-      <c r="B85" s="72"/>
-      <c r="C85" s="130"/>
-      <c r="D85" s="105"/>
+      <c r="A85" s="66"/>
+      <c r="B85" s="69"/>
+      <c r="C85" s="158"/>
+      <c r="D85" s="106"/>
       <c r="E85" s="7"/>
-      <c r="F85" s="138"/>
-      <c r="G85" s="55"/>
-      <c r="H85" s="37" t="s">
+      <c r="F85" s="160"/>
+      <c r="G85" s="100"/>
+      <c r="H85" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="I85" s="23" t="s">
+      <c r="I85" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="J85" s="24"/>
+      <c r="J85" s="18"/>
     </row>
     <row r="86" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="69"/>
-      <c r="B86" s="72"/>
-      <c r="C86" s="130"/>
-      <c r="D86" s="105"/>
+      <c r="A86" s="66"/>
+      <c r="B86" s="69"/>
+      <c r="C86" s="158"/>
+      <c r="D86" s="106"/>
       <c r="E86" s="7"/>
-      <c r="F86" s="138"/>
-      <c r="G86" s="55"/>
-      <c r="H86" s="37" t="s">
+      <c r="F86" s="160"/>
+      <c r="G86" s="100"/>
+      <c r="H86" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="I86" s="23" t="s">
+      <c r="I86" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="J86" s="24"/>
+      <c r="J86" s="18"/>
     </row>
     <row r="87" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="69"/>
-      <c r="B87" s="72"/>
-      <c r="C87" s="130"/>
-      <c r="D87" s="105"/>
+      <c r="A87" s="66"/>
+      <c r="B87" s="69"/>
+      <c r="C87" s="158"/>
+      <c r="D87" s="106"/>
       <c r="E87" s="7"/>
-      <c r="F87" s="138"/>
-      <c r="G87" s="55"/>
-      <c r="H87" s="37" t="s">
+      <c r="F87" s="160"/>
+      <c r="G87" s="100"/>
+      <c r="H87" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="I87" s="23" t="s">
+      <c r="I87" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="J87" s="24"/>
+      <c r="J87" s="18"/>
     </row>
     <row r="88" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="69"/>
-      <c r="B88" s="72"/>
-      <c r="C88" s="130"/>
-      <c r="D88" s="105"/>
+      <c r="A88" s="66"/>
+      <c r="B88" s="69"/>
+      <c r="C88" s="158"/>
+      <c r="D88" s="106"/>
       <c r="E88" s="7"/>
-      <c r="F88" s="138"/>
-      <c r="G88" s="55"/>
-      <c r="H88" s="37" t="s">
+      <c r="F88" s="160"/>
+      <c r="G88" s="100"/>
+      <c r="H88" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="I88" s="23" t="s">
+      <c r="I88" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="J88" s="24"/>
+      <c r="J88" s="18"/>
     </row>
     <row r="89" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="69"/>
-      <c r="B89" s="72"/>
-      <c r="C89" s="130"/>
-      <c r="D89" s="105"/>
+      <c r="A89" s="66"/>
+      <c r="B89" s="69"/>
+      <c r="C89" s="158"/>
+      <c r="D89" s="106"/>
       <c r="E89" s="7"/>
-      <c r="F89" s="138"/>
-      <c r="G89" s="55"/>
-      <c r="H89" s="46" t="s">
+      <c r="F89" s="160"/>
+      <c r="G89" s="100"/>
+      <c r="H89" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="I89" s="23" t="s">
+      <c r="I89" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J89" s="24" t="s">
+      <c r="J89" s="18" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="69"/>
-      <c r="B90" s="72"/>
-      <c r="C90" s="130"/>
-      <c r="D90" s="105"/>
+      <c r="A90" s="66"/>
+      <c r="B90" s="69"/>
+      <c r="C90" s="158"/>
+      <c r="D90" s="106"/>
       <c r="E90" s="7"/>
-      <c r="F90" s="138"/>
-      <c r="G90" s="55"/>
-      <c r="H90" s="47"/>
-      <c r="I90" s="23" t="s">
+      <c r="F90" s="160"/>
+      <c r="G90" s="100"/>
+      <c r="H90" s="76"/>
+      <c r="I90" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="J90" s="24"/>
+      <c r="J90" s="18"/>
     </row>
     <row r="91" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="69"/>
-      <c r="B91" s="72"/>
-      <c r="C91" s="130"/>
-      <c r="D91" s="105"/>
+      <c r="A91" s="66"/>
+      <c r="B91" s="69"/>
+      <c r="C91" s="158"/>
+      <c r="D91" s="106"/>
       <c r="E91" s="8"/>
-      <c r="F91" s="139"/>
-      <c r="G91" s="56"/>
-      <c r="H91" s="37"/>
-      <c r="I91" s="33"/>
-      <c r="J91" s="28" t="s">
+      <c r="F91" s="161"/>
+      <c r="G91" s="101"/>
+      <c r="H91" s="31"/>
+      <c r="I91" s="27"/>
+      <c r="J91" s="22" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="69"/>
-      <c r="B92" s="72"/>
-      <c r="C92" s="130"/>
-      <c r="D92" s="105"/>
-      <c r="E92" s="78" t="s">
+      <c r="A92" s="66"/>
+      <c r="B92" s="69"/>
+      <c r="C92" s="158"/>
+      <c r="D92" s="106"/>
+      <c r="E92" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="F92" s="127"/>
-      <c r="G92" s="127"/>
-      <c r="H92" s="128"/>
-      <c r="I92" s="23" t="s">
+      <c r="F92" s="155"/>
+      <c r="G92" s="155"/>
+      <c r="H92" s="156"/>
+      <c r="I92" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="J92" s="28"/>
+      <c r="J92" s="22"/>
     </row>
     <row r="93" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="69"/>
-      <c r="B93" s="72"/>
-      <c r="C93" s="130"/>
-      <c r="D93" s="105"/>
-      <c r="E93" s="79"/>
-      <c r="F93" s="48" t="s">
+      <c r="A93" s="66"/>
+      <c r="B93" s="69"/>
+      <c r="C93" s="158"/>
+      <c r="D93" s="106"/>
+      <c r="E93" s="83"/>
+      <c r="F93" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="G93" s="74"/>
-      <c r="H93" s="49"/>
-      <c r="I93" s="23" t="s">
+      <c r="G93" s="72"/>
+      <c r="H93" s="73"/>
+      <c r="I93" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="J93" s="24" t="s">
+      <c r="J93" s="18" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="69"/>
-      <c r="B94" s="72"/>
-      <c r="C94" s="130"/>
-      <c r="D94" s="105"/>
-      <c r="E94" s="79"/>
-      <c r="F94" s="54" t="s">
+      <c r="A94" s="66"/>
+      <c r="B94" s="69"/>
+      <c r="C94" s="158"/>
+      <c r="D94" s="106"/>
+      <c r="E94" s="83"/>
+      <c r="F94" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="G94" s="96"/>
-      <c r="H94" s="97"/>
-      <c r="I94" s="23" t="s">
+      <c r="G94" s="114"/>
+      <c r="H94" s="115"/>
+      <c r="I94" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="J94" s="24"/>
+      <c r="J94" s="18"/>
     </row>
     <row r="95" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="69"/>
-      <c r="B95" s="72"/>
-      <c r="C95" s="130"/>
-      <c r="D95" s="105"/>
-      <c r="E95" s="79"/>
-      <c r="F95" s="55"/>
-      <c r="G95" s="46" t="s">
+      <c r="A95" s="66"/>
+      <c r="B95" s="69"/>
+      <c r="C95" s="158"/>
+      <c r="D95" s="106"/>
+      <c r="E95" s="83"/>
+      <c r="F95" s="100"/>
+      <c r="G95" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="H95" s="23"/>
-      <c r="I95" s="23" t="s">
+      <c r="H95" s="17"/>
+      <c r="I95" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J95" s="24" t="s">
+      <c r="J95" s="18" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="69"/>
-      <c r="B96" s="72"/>
-      <c r="C96" s="130"/>
-      <c r="D96" s="105"/>
-      <c r="E96" s="79"/>
-      <c r="F96" s="55"/>
-      <c r="G96" s="47"/>
-      <c r="H96" s="23"/>
-      <c r="I96" s="23" t="s">
+      <c r="A96" s="66"/>
+      <c r="B96" s="69"/>
+      <c r="C96" s="158"/>
+      <c r="D96" s="106"/>
+      <c r="E96" s="83"/>
+      <c r="F96" s="100"/>
+      <c r="G96" s="76"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="J96" s="24"/>
+      <c r="J96" s="18"/>
     </row>
     <row r="97" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="69"/>
-      <c r="B97" s="72"/>
-      <c r="C97" s="130"/>
-      <c r="D97" s="105"/>
-      <c r="E97" s="79"/>
-      <c r="F97" s="55"/>
-      <c r="G97" s="46" t="s">
+      <c r="A97" s="66"/>
+      <c r="B97" s="69"/>
+      <c r="C97" s="158"/>
+      <c r="D97" s="106"/>
+      <c r="E97" s="83"/>
+      <c r="F97" s="100"/>
+      <c r="G97" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="H97" s="23"/>
-      <c r="I97" s="23" t="s">
+      <c r="H97" s="17"/>
+      <c r="I97" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="J97" s="24"/>
+      <c r="J97" s="18"/>
     </row>
     <row r="98" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="69"/>
-      <c r="B98" s="72"/>
-      <c r="C98" s="130"/>
-      <c r="D98" s="105"/>
-      <c r="E98" s="79"/>
-      <c r="F98" s="56"/>
-      <c r="G98" s="47"/>
-      <c r="H98" s="23"/>
-      <c r="I98" s="23" t="s">
+      <c r="A98" s="66"/>
+      <c r="B98" s="69"/>
+      <c r="C98" s="158"/>
+      <c r="D98" s="106"/>
+      <c r="E98" s="83"/>
+      <c r="F98" s="101"/>
+      <c r="G98" s="76"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="J98" s="24" t="s">
+      <c r="J98" s="18" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="69"/>
-      <c r="B99" s="72"/>
-      <c r="C99" s="130"/>
-      <c r="D99" s="105"/>
-      <c r="E99" s="79"/>
-      <c r="F99" s="140" t="s">
+      <c r="A99" s="66"/>
+      <c r="B99" s="69"/>
+      <c r="C99" s="158"/>
+      <c r="D99" s="106"/>
+      <c r="E99" s="83"/>
+      <c r="F99" s="162" t="s">
         <v>129</v>
       </c>
-      <c r="G99" s="52"/>
-      <c r="H99" s="53"/>
-      <c r="I99" s="45" t="s">
+      <c r="G99" s="61"/>
+      <c r="H99" s="62"/>
+      <c r="I99" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="J99" s="24"/>
+      <c r="J99" s="18"/>
     </row>
     <row r="100" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="69"/>
-      <c r="B100" s="72"/>
-      <c r="C100" s="130"/>
-      <c r="D100" s="105"/>
-      <c r="E100" s="79"/>
-      <c r="F100" s="141"/>
-      <c r="G100" s="54" t="s">
+      <c r="A100" s="66"/>
+      <c r="B100" s="69"/>
+      <c r="C100" s="158"/>
+      <c r="D100" s="106"/>
+      <c r="E100" s="83"/>
+      <c r="F100" s="163"/>
+      <c r="G100" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="H100" s="26"/>
-      <c r="I100" s="23" t="s">
+      <c r="H100" s="20"/>
+      <c r="I100" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="J100" s="24"/>
+      <c r="J100" s="18"/>
     </row>
     <row r="101" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="69"/>
-      <c r="B101" s="72"/>
-      <c r="C101" s="130"/>
-      <c r="D101" s="105"/>
-      <c r="E101" s="79"/>
-      <c r="F101" s="141"/>
-      <c r="G101" s="55"/>
-      <c r="H101" s="46" t="s">
+      <c r="A101" s="66"/>
+      <c r="B101" s="69"/>
+      <c r="C101" s="158"/>
+      <c r="D101" s="106"/>
+      <c r="E101" s="83"/>
+      <c r="F101" s="163"/>
+      <c r="G101" s="100"/>
+      <c r="H101" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="I101" s="23" t="s">
+      <c r="I101" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J101" s="24" t="s">
+      <c r="J101" s="18" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="69"/>
-      <c r="B102" s="72"/>
-      <c r="C102" s="130"/>
-      <c r="D102" s="105"/>
-      <c r="E102" s="79"/>
-      <c r="F102" s="141"/>
-      <c r="G102" s="55"/>
-      <c r="H102" s="47"/>
-      <c r="I102" s="23" t="s">
+      <c r="A102" s="66"/>
+      <c r="B102" s="69"/>
+      <c r="C102" s="158"/>
+      <c r="D102" s="106"/>
+      <c r="E102" s="83"/>
+      <c r="F102" s="163"/>
+      <c r="G102" s="100"/>
+      <c r="H102" s="76"/>
+      <c r="I102" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="J102" s="24"/>
+      <c r="J102" s="18"/>
     </row>
     <row r="103" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="69"/>
-      <c r="B103" s="72"/>
-      <c r="C103" s="130"/>
-      <c r="D103" s="105"/>
-      <c r="E103" s="79"/>
-      <c r="F103" s="141"/>
-      <c r="G103" s="55"/>
-      <c r="H103" s="46" t="s">
+      <c r="A103" s="66"/>
+      <c r="B103" s="69"/>
+      <c r="C103" s="158"/>
+      <c r="D103" s="106"/>
+      <c r="E103" s="83"/>
+      <c r="F103" s="163"/>
+      <c r="G103" s="100"/>
+      <c r="H103" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="I103" s="23" t="s">
+      <c r="I103" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="J103" s="24"/>
+      <c r="J103" s="18"/>
     </row>
     <row r="104" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="69"/>
-      <c r="B104" s="72"/>
-      <c r="C104" s="130"/>
-      <c r="D104" s="105"/>
-      <c r="E104" s="79"/>
-      <c r="F104" s="141"/>
-      <c r="G104" s="56"/>
-      <c r="H104" s="47"/>
-      <c r="I104" s="23" t="s">
+      <c r="A104" s="66"/>
+      <c r="B104" s="69"/>
+      <c r="C104" s="158"/>
+      <c r="D104" s="106"/>
+      <c r="E104" s="83"/>
+      <c r="F104" s="163"/>
+      <c r="G104" s="101"/>
+      <c r="H104" s="76"/>
+      <c r="I104" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="J104" s="24" t="s">
+      <c r="J104" s="18" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="69"/>
-      <c r="B105" s="72"/>
-      <c r="C105" s="130"/>
-      <c r="D105" s="105"/>
-      <c r="E105" s="79"/>
-      <c r="F105" s="141"/>
-      <c r="G105" s="54" t="s">
+      <c r="A105" s="66"/>
+      <c r="B105" s="69"/>
+      <c r="C105" s="158"/>
+      <c r="D105" s="106"/>
+      <c r="E105" s="83"/>
+      <c r="F105" s="163"/>
+      <c r="G105" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="H105" s="32"/>
-      <c r="I105" s="23" t="s">
+      <c r="H105" s="26"/>
+      <c r="I105" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="J105" s="24" t="s">
+      <c r="J105" s="18" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="69"/>
-      <c r="B106" s="72"/>
-      <c r="C106" s="130"/>
-      <c r="D106" s="105"/>
-      <c r="E106" s="79"/>
-      <c r="F106" s="141"/>
-      <c r="G106" s="55"/>
-      <c r="H106" s="37" t="s">
+      <c r="A106" s="66"/>
+      <c r="B106" s="69"/>
+      <c r="C106" s="158"/>
+      <c r="D106" s="106"/>
+      <c r="E106" s="83"/>
+      <c r="F106" s="163"/>
+      <c r="G106" s="100"/>
+      <c r="H106" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="I106" s="23" t="s">
+      <c r="I106" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="J106" s="24"/>
+      <c r="J106" s="18"/>
     </row>
     <row r="107" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="69"/>
-      <c r="B107" s="72"/>
-      <c r="C107" s="130"/>
-      <c r="D107" s="105"/>
-      <c r="E107" s="79"/>
-      <c r="F107" s="141"/>
-      <c r="G107" s="55"/>
-      <c r="H107" s="37" t="s">
+      <c r="A107" s="66"/>
+      <c r="B107" s="69"/>
+      <c r="C107" s="158"/>
+      <c r="D107" s="106"/>
+      <c r="E107" s="83"/>
+      <c r="F107" s="163"/>
+      <c r="G107" s="100"/>
+      <c r="H107" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="I107" s="23" t="s">
+      <c r="I107" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="J107" s="24"/>
+      <c r="J107" s="18"/>
     </row>
     <row r="108" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="69"/>
-      <c r="B108" s="72"/>
-      <c r="C108" s="130"/>
-      <c r="D108" s="105"/>
-      <c r="E108" s="79"/>
-      <c r="F108" s="141"/>
-      <c r="G108" s="55"/>
-      <c r="H108" s="37" t="s">
+      <c r="A108" s="66"/>
+      <c r="B108" s="69"/>
+      <c r="C108" s="158"/>
+      <c r="D108" s="106"/>
+      <c r="E108" s="83"/>
+      <c r="F108" s="163"/>
+      <c r="G108" s="100"/>
+      <c r="H108" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="I108" s="23" t="s">
+      <c r="I108" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="J108" s="24"/>
+      <c r="J108" s="18"/>
     </row>
     <row r="109" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="69"/>
-      <c r="B109" s="72"/>
-      <c r="C109" s="130"/>
-      <c r="D109" s="105"/>
-      <c r="E109" s="79"/>
-      <c r="F109" s="141"/>
-      <c r="G109" s="55"/>
-      <c r="H109" s="37" t="s">
+      <c r="A109" s="66"/>
+      <c r="B109" s="69"/>
+      <c r="C109" s="158"/>
+      <c r="D109" s="106"/>
+      <c r="E109" s="83"/>
+      <c r="F109" s="163"/>
+      <c r="G109" s="100"/>
+      <c r="H109" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="I109" s="23" t="s">
+      <c r="I109" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="J109" s="24"/>
+      <c r="J109" s="18"/>
     </row>
     <row r="110" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="69"/>
-      <c r="B110" s="72"/>
-      <c r="C110" s="130"/>
-      <c r="D110" s="105"/>
-      <c r="E110" s="79"/>
-      <c r="F110" s="141"/>
-      <c r="G110" s="55"/>
-      <c r="H110" s="46" t="s">
+      <c r="A110" s="66"/>
+      <c r="B110" s="69"/>
+      <c r="C110" s="158"/>
+      <c r="D110" s="106"/>
+      <c r="E110" s="83"/>
+      <c r="F110" s="163"/>
+      <c r="G110" s="100"/>
+      <c r="H110" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="I110" s="23" t="s">
+      <c r="I110" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J110" s="24" t="s">
+      <c r="J110" s="18" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="69"/>
-      <c r="B111" s="72"/>
-      <c r="C111" s="130"/>
-      <c r="D111" s="105"/>
-      <c r="E111" s="79"/>
-      <c r="F111" s="141"/>
-      <c r="G111" s="55"/>
-      <c r="H111" s="47"/>
-      <c r="I111" s="23" t="s">
+      <c r="A111" s="66"/>
+      <c r="B111" s="69"/>
+      <c r="C111" s="158"/>
+      <c r="D111" s="106"/>
+      <c r="E111" s="83"/>
+      <c r="F111" s="163"/>
+      <c r="G111" s="100"/>
+      <c r="H111" s="76"/>
+      <c r="I111" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="J111" s="24"/>
+      <c r="J111" s="18"/>
     </row>
     <row r="112" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="69"/>
-      <c r="B112" s="72"/>
-      <c r="C112" s="130"/>
-      <c r="D112" s="106"/>
-      <c r="E112" s="80"/>
-      <c r="F112" s="142"/>
-      <c r="G112" s="56"/>
-      <c r="H112" s="37"/>
-      <c r="I112" s="33"/>
-      <c r="J112" s="24"/>
+      <c r="A112" s="66"/>
+      <c r="B112" s="69"/>
+      <c r="C112" s="158"/>
+      <c r="D112" s="107"/>
+      <c r="E112" s="84"/>
+      <c r="F112" s="164"/>
+      <c r="G112" s="101"/>
+      <c r="H112" s="31"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="18"/>
     </row>
     <row r="113" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="69"/>
-      <c r="B113" s="72"/>
-      <c r="C113" s="130"/>
-      <c r="D113" s="143" t="s">
+      <c r="A113" s="66"/>
+      <c r="B113" s="69"/>
+      <c r="C113" s="158"/>
+      <c r="D113" s="137" t="s">
         <v>92</v>
       </c>
-      <c r="E113" s="18"/>
-      <c r="F113" s="18"/>
-      <c r="G113" s="18"/>
-      <c r="H113" s="19"/>
-      <c r="I113" s="131" t="s">
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="13"/>
+      <c r="I113" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="J113" s="28"/>
+      <c r="J113" s="22"/>
     </row>
     <row r="114" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="69"/>
-      <c r="B114" s="72"/>
-      <c r="C114" s="130"/>
-      <c r="D114" s="144"/>
-      <c r="E114" s="10" t="s">
+      <c r="A114" s="66"/>
+      <c r="B114" s="69"/>
+      <c r="C114" s="158"/>
+      <c r="D114" s="138"/>
+      <c r="E114" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="F114" s="14"/>
-      <c r="G114" s="14"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
       <c r="H114" s="9"/>
-      <c r="I114" s="23" t="s">
+      <c r="I114" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="J114" s="24"/>
+      <c r="J114" s="18"/>
     </row>
     <row r="115" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="69"/>
-      <c r="B115" s="72"/>
-      <c r="C115" s="130"/>
-      <c r="D115" s="144"/>
-      <c r="E115" s="11"/>
-      <c r="F115" s="36" t="s">
+      <c r="A115" s="66"/>
+      <c r="B115" s="69"/>
+      <c r="C115" s="158"/>
+      <c r="D115" s="138"/>
+      <c r="E115" s="48"/>
+      <c r="F115" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G115" s="26"/>
-      <c r="H115" s="27"/>
-      <c r="I115" s="23" t="s">
+      <c r="G115" s="20"/>
+      <c r="H115" s="21"/>
+      <c r="I115" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J115" s="24" t="s">
+      <c r="J115" s="18" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="69"/>
-      <c r="B116" s="72"/>
-      <c r="C116" s="130"/>
-      <c r="D116" s="144"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="38"/>
-      <c r="G116" s="26"/>
-      <c r="H116" s="27"/>
-      <c r="I116" s="23" t="s">
+      <c r="A116" s="66"/>
+      <c r="B116" s="69"/>
+      <c r="C116" s="158"/>
+      <c r="D116" s="138"/>
+      <c r="E116" s="49"/>
+      <c r="F116" s="32"/>
+      <c r="G116" s="20"/>
+      <c r="H116" s="21"/>
+      <c r="I116" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="J116" s="24"/>
+      <c r="J116" s="18"/>
     </row>
     <row r="117" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="69"/>
-      <c r="B117" s="72"/>
-      <c r="C117" s="130"/>
-      <c r="D117" s="144"/>
-      <c r="E117" s="15" t="s">
+      <c r="A117" s="66"/>
+      <c r="B117" s="69"/>
+      <c r="C117" s="158"/>
+      <c r="D117" s="138"/>
+      <c r="E117" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="F117" s="14"/>
-      <c r="G117" s="14"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
       <c r="H117" s="9"/>
-      <c r="I117" s="23" t="s">
+      <c r="I117" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="J117" s="24"/>
+      <c r="J117" s="18"/>
     </row>
     <row r="118" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="69"/>
-      <c r="B118" s="72"/>
-      <c r="C118" s="130"/>
-      <c r="D118" s="144"/>
-      <c r="E118" s="16"/>
-      <c r="F118" s="29" t="s">
+      <c r="A118" s="66"/>
+      <c r="B118" s="69"/>
+      <c r="C118" s="158"/>
+      <c r="D118" s="138"/>
+      <c r="E118" s="80"/>
+      <c r="F118" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G118" s="30"/>
-      <c r="H118" s="31"/>
-      <c r="I118" s="23" t="s">
+      <c r="G118" s="24"/>
+      <c r="H118" s="25"/>
+      <c r="I118" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J118" s="24" t="s">
+      <c r="J118" s="18" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="69"/>
-      <c r="B119" s="72"/>
-      <c r="C119" s="130"/>
-      <c r="D119" s="144"/>
-      <c r="E119" s="16"/>
-      <c r="F119" s="34"/>
-      <c r="G119" s="43"/>
-      <c r="H119" s="35"/>
-      <c r="I119" s="23" t="s">
+      <c r="A119" s="66"/>
+      <c r="B119" s="69"/>
+      <c r="C119" s="158"/>
+      <c r="D119" s="138"/>
+      <c r="E119" s="80"/>
+      <c r="F119" s="28"/>
+      <c r="G119" s="37"/>
+      <c r="H119" s="29"/>
+      <c r="I119" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="J119" s="24"/>
+      <c r="J119" s="18"/>
     </row>
     <row r="120" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="69"/>
-      <c r="B120" s="72"/>
-      <c r="C120" s="130"/>
-      <c r="D120" s="145"/>
-      <c r="E120" s="17"/>
-      <c r="F120" s="37" t="s">
+      <c r="A120" s="66"/>
+      <c r="B120" s="69"/>
+      <c r="C120" s="158"/>
+      <c r="D120" s="139"/>
+      <c r="E120" s="81"/>
+      <c r="F120" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="G120" s="26"/>
-      <c r="H120" s="27"/>
-      <c r="I120" s="23" t="s">
+      <c r="G120" s="20"/>
+      <c r="H120" s="21"/>
+      <c r="I120" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="J120" s="24"/>
+      <c r="J120" s="18"/>
     </row>
     <row r="121" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="69"/>
-      <c r="B121" s="72"/>
-      <c r="C121" s="130"/>
-      <c r="D121" s="146" t="s">
+      <c r="A121" s="66"/>
+      <c r="B121" s="69"/>
+      <c r="C121" s="158"/>
+      <c r="D121" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="E121" s="20"/>
-      <c r="F121" s="20"/>
-      <c r="G121" s="20"/>
-      <c r="H121" s="21"/>
-      <c r="I121" s="131" t="s">
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c r="G121" s="14"/>
+      <c r="H121" s="15"/>
+      <c r="I121" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="J121" s="28"/>
+      <c r="J121" s="22"/>
     </row>
     <row r="122" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="69"/>
-      <c r="B122" s="72"/>
-      <c r="C122" s="130"/>
-      <c r="D122" s="147"/>
-      <c r="E122" s="10" t="s">
+      <c r="A122" s="66"/>
+      <c r="B122" s="69"/>
+      <c r="C122" s="158"/>
+      <c r="D122" s="135"/>
+      <c r="E122" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="F122" s="13"/>
-      <c r="G122" s="13"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
       <c r="H122" s="4"/>
-      <c r="I122" s="23" t="s">
+      <c r="I122" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="J122" s="24"/>
+      <c r="J122" s="18"/>
     </row>
     <row r="123" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="69"/>
-      <c r="B123" s="72"/>
-      <c r="C123" s="130"/>
-      <c r="D123" s="147"/>
-      <c r="E123" s="11"/>
-      <c r="F123" s="29" t="s">
+      <c r="A123" s="66"/>
+      <c r="B123" s="69"/>
+      <c r="C123" s="158"/>
+      <c r="D123" s="135"/>
+      <c r="E123" s="48"/>
+      <c r="F123" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G123" s="30"/>
-      <c r="H123" s="31"/>
-      <c r="I123" s="23" t="s">
+      <c r="G123" s="24"/>
+      <c r="H123" s="25"/>
+      <c r="I123" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J123" s="24" t="s">
+      <c r="J123" s="18" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="69"/>
-      <c r="B124" s="72"/>
-      <c r="C124" s="130"/>
-      <c r="D124" s="147"/>
-      <c r="E124" s="12"/>
-      <c r="F124" s="34"/>
-      <c r="G124" s="43"/>
-      <c r="H124" s="35"/>
-      <c r="I124" s="23" t="s">
+      <c r="A124" s="66"/>
+      <c r="B124" s="69"/>
+      <c r="C124" s="158"/>
+      <c r="D124" s="135"/>
+      <c r="E124" s="49"/>
+      <c r="F124" s="28"/>
+      <c r="G124" s="37"/>
+      <c r="H124" s="29"/>
+      <c r="I124" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="J124" s="24"/>
+      <c r="J124" s="18"/>
     </row>
     <row r="125" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="69"/>
-      <c r="B125" s="72"/>
-      <c r="C125" s="130"/>
-      <c r="D125" s="147"/>
-      <c r="E125" s="10" t="s">
+      <c r="A125" s="66"/>
+      <c r="B125" s="69"/>
+      <c r="C125" s="158"/>
+      <c r="D125" s="135"/>
+      <c r="E125" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="F125" s="13"/>
-      <c r="G125" s="13"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
       <c r="H125" s="4"/>
-      <c r="I125" s="23" t="s">
+      <c r="I125" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="J125" s="24"/>
+      <c r="J125" s="18"/>
     </row>
     <row r="126" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="69"/>
-      <c r="B126" s="72"/>
-      <c r="C126" s="130"/>
-      <c r="D126" s="147"/>
-      <c r="E126" s="11"/>
-      <c r="F126" s="37" t="s">
+      <c r="A126" s="66"/>
+      <c r="B126" s="69"/>
+      <c r="C126" s="158"/>
+      <c r="D126" s="135"/>
+      <c r="E126" s="48"/>
+      <c r="F126" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="G126" s="26"/>
-      <c r="H126" s="27"/>
-      <c r="I126" s="131" t="s">
+      <c r="G126" s="20"/>
+      <c r="H126" s="21"/>
+      <c r="I126" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="J126" s="28" t="s">
+      <c r="J126" s="22" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="69"/>
-      <c r="B127" s="72"/>
-      <c r="C127" s="130"/>
-      <c r="D127" s="148"/>
-      <c r="E127" s="12"/>
-      <c r="F127" s="37" t="s">
+      <c r="A127" s="66"/>
+      <c r="B127" s="69"/>
+      <c r="C127" s="158"/>
+      <c r="D127" s="136"/>
+      <c r="E127" s="49"/>
+      <c r="F127" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="G127" s="26"/>
-      <c r="H127" s="27"/>
-      <c r="I127" s="131" t="s">
+      <c r="G127" s="20"/>
+      <c r="H127" s="21"/>
+      <c r="I127" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="J127" s="28" t="s">
+      <c r="J127" s="22" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="69"/>
-      <c r="B128" s="72"/>
-      <c r="C128" s="130"/>
-      <c r="D128" s="149" t="s">
+      <c r="A128" s="66"/>
+      <c r="B128" s="69"/>
+      <c r="C128" s="158"/>
+      <c r="D128" s="140" t="s">
         <v>125</v>
       </c>
-      <c r="E128" s="18"/>
-      <c r="F128" s="18"/>
-      <c r="G128" s="18"/>
-      <c r="H128" s="19"/>
-      <c r="I128" s="131" t="s">
+      <c r="E128" s="12"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="13"/>
+      <c r="I128" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="J128" s="28"/>
+      <c r="J128" s="22"/>
     </row>
     <row r="129" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="69"/>
-      <c r="B129" s="72"/>
-      <c r="C129" s="130"/>
-      <c r="D129" s="150"/>
-      <c r="E129" s="10" t="s">
+      <c r="A129" s="66"/>
+      <c r="B129" s="69"/>
+      <c r="C129" s="158"/>
+      <c r="D129" s="141"/>
+      <c r="E129" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F129" s="13"/>
-      <c r="G129" s="13"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10"/>
       <c r="H129" s="4"/>
-      <c r="I129" s="23" t="s">
+      <c r="I129" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="J129" s="24"/>
+      <c r="J129" s="18"/>
     </row>
     <row r="130" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="69"/>
-      <c r="B130" s="72"/>
-      <c r="C130" s="130"/>
-      <c r="D130" s="150"/>
-      <c r="E130" s="11"/>
-      <c r="F130" s="29" t="s">
+      <c r="A130" s="66"/>
+      <c r="B130" s="69"/>
+      <c r="C130" s="158"/>
+      <c r="D130" s="141"/>
+      <c r="E130" s="48"/>
+      <c r="F130" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G130" s="30"/>
-      <c r="H130" s="31"/>
-      <c r="I130" s="23" t="s">
+      <c r="G130" s="24"/>
+      <c r="H130" s="25"/>
+      <c r="I130" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J130" s="24" t="s">
+      <c r="J130" s="18" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="69"/>
-      <c r="B131" s="72"/>
-      <c r="C131" s="130"/>
-      <c r="D131" s="150"/>
-      <c r="E131" s="12"/>
-      <c r="F131" s="34"/>
-      <c r="G131" s="43"/>
-      <c r="H131" s="35"/>
-      <c r="I131" s="23" t="s">
+      <c r="A131" s="66"/>
+      <c r="B131" s="69"/>
+      <c r="C131" s="158"/>
+      <c r="D131" s="141"/>
+      <c r="E131" s="49"/>
+      <c r="F131" s="28"/>
+      <c r="G131" s="37"/>
+      <c r="H131" s="29"/>
+      <c r="I131" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="J131" s="24"/>
+      <c r="J131" s="18"/>
     </row>
     <row r="132" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="69"/>
-      <c r="B132" s="72"/>
-      <c r="C132" s="130"/>
-      <c r="D132" s="150"/>
-      <c r="E132" s="22" t="s">
+      <c r="A132" s="66"/>
+      <c r="B132" s="69"/>
+      <c r="C132" s="158"/>
+      <c r="D132" s="141"/>
+      <c r="E132" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F132" s="13"/>
-      <c r="G132" s="13"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
       <c r="H132" s="4"/>
-      <c r="I132" s="33" t="s">
+      <c r="I132" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="J132" s="28" t="s">
+      <c r="J132" s="22" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="69"/>
-      <c r="B133" s="72"/>
-      <c r="C133" s="130"/>
-      <c r="D133" s="150"/>
-      <c r="E133" s="10" t="s">
+      <c r="A133" s="66"/>
+      <c r="B133" s="69"/>
+      <c r="C133" s="158"/>
+      <c r="D133" s="141"/>
+      <c r="E133" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F133" s="13"/>
-      <c r="G133" s="13"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="10"/>
       <c r="H133" s="4"/>
-      <c r="I133" s="23" t="s">
+      <c r="I133" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="J133" s="24"/>
+      <c r="J133" s="18"/>
     </row>
     <row r="134" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="69"/>
-      <c r="B134" s="72"/>
-      <c r="C134" s="130"/>
-      <c r="D134" s="150"/>
-      <c r="E134" s="11"/>
-      <c r="F134" s="29" t="s">
+      <c r="A134" s="66"/>
+      <c r="B134" s="69"/>
+      <c r="C134" s="158"/>
+      <c r="D134" s="141"/>
+      <c r="E134" s="48"/>
+      <c r="F134" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G134" s="30"/>
-      <c r="H134" s="31"/>
-      <c r="I134" s="23" t="s">
+      <c r="G134" s="24"/>
+      <c r="H134" s="25"/>
+      <c r="I134" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J134" s="24" t="s">
+      <c r="J134" s="18" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="69"/>
-      <c r="B135" s="72"/>
-      <c r="C135" s="130"/>
-      <c r="D135" s="150"/>
-      <c r="E135" s="11"/>
-      <c r="F135" s="34"/>
-      <c r="G135" s="43"/>
-      <c r="H135" s="35"/>
-      <c r="I135" s="23" t="s">
+      <c r="A135" s="66"/>
+      <c r="B135" s="69"/>
+      <c r="C135" s="158"/>
+      <c r="D135" s="141"/>
+      <c r="E135" s="48"/>
+      <c r="F135" s="28"/>
+      <c r="G135" s="37"/>
+      <c r="H135" s="29"/>
+      <c r="I135" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="J135" s="24"/>
+      <c r="J135" s="18"/>
     </row>
     <row r="136" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="69"/>
-      <c r="B136" s="72"/>
-      <c r="C136" s="130"/>
-      <c r="D136" s="150"/>
-      <c r="E136" s="11"/>
-      <c r="F136" s="29" t="s">
+      <c r="A136" s="66"/>
+      <c r="B136" s="69"/>
+      <c r="C136" s="158"/>
+      <c r="D136" s="141"/>
+      <c r="E136" s="48"/>
+      <c r="F136" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G136" s="30"/>
-      <c r="H136" s="31"/>
-      <c r="I136" s="23" t="s">
+      <c r="G136" s="24"/>
+      <c r="H136" s="25"/>
+      <c r="I136" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="J136" s="24"/>
+      <c r="J136" s="18"/>
     </row>
     <row r="137" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="69"/>
-      <c r="B137" s="72"/>
-      <c r="C137" s="130"/>
-      <c r="D137" s="150"/>
-      <c r="E137" s="12"/>
-      <c r="F137" s="34"/>
-      <c r="G137" s="43"/>
-      <c r="H137" s="35"/>
-      <c r="I137" s="23" t="s">
+      <c r="A137" s="66"/>
+      <c r="B137" s="69"/>
+      <c r="C137" s="158"/>
+      <c r="D137" s="141"/>
+      <c r="E137" s="49"/>
+      <c r="F137" s="28"/>
+      <c r="G137" s="37"/>
+      <c r="H137" s="29"/>
+      <c r="I137" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="J137" s="24" t="s">
+      <c r="J137" s="18" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="69"/>
-      <c r="B138" s="72"/>
-      <c r="C138" s="130"/>
-      <c r="D138" s="150"/>
-      <c r="E138" s="10" t="s">
+      <c r="A138" s="66"/>
+      <c r="B138" s="69"/>
+      <c r="C138" s="158"/>
+      <c r="D138" s="141"/>
+      <c r="E138" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F138" s="14"/>
-      <c r="G138" s="14"/>
+      <c r="F138" s="11"/>
+      <c r="G138" s="11"/>
       <c r="H138" s="9"/>
-      <c r="I138" s="23" t="s">
+      <c r="I138" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="J138" s="24" t="s">
+      <c r="J138" s="18" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="69"/>
-      <c r="B139" s="72"/>
-      <c r="C139" s="130"/>
-      <c r="D139" s="150"/>
-      <c r="E139" s="11"/>
-      <c r="F139" s="37" t="s">
+      <c r="A139" s="66"/>
+      <c r="B139" s="69"/>
+      <c r="C139" s="158"/>
+      <c r="D139" s="141"/>
+      <c r="E139" s="48"/>
+      <c r="F139" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="G139" s="26"/>
-      <c r="H139" s="27"/>
-      <c r="I139" s="23" t="s">
+      <c r="G139" s="20"/>
+      <c r="H139" s="21"/>
+      <c r="I139" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="J139" s="24"/>
+      <c r="J139" s="18"/>
     </row>
     <row r="140" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="69"/>
-      <c r="B140" s="72"/>
-      <c r="C140" s="130"/>
-      <c r="D140" s="150"/>
-      <c r="E140" s="11"/>
-      <c r="F140" s="37" t="s">
+      <c r="A140" s="66"/>
+      <c r="B140" s="69"/>
+      <c r="C140" s="158"/>
+      <c r="D140" s="141"/>
+      <c r="E140" s="48"/>
+      <c r="F140" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="G140" s="26"/>
-      <c r="H140" s="27"/>
-      <c r="I140" s="23" t="s">
+      <c r="G140" s="20"/>
+      <c r="H140" s="21"/>
+      <c r="I140" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="J140" s="24"/>
+      <c r="J140" s="18"/>
     </row>
     <row r="141" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="69"/>
-      <c r="B141" s="72"/>
-      <c r="C141" s="130"/>
-      <c r="D141" s="150"/>
-      <c r="E141" s="11"/>
-      <c r="F141" s="37" t="s">
+      <c r="A141" s="66"/>
+      <c r="B141" s="69"/>
+      <c r="C141" s="158"/>
+      <c r="D141" s="141"/>
+      <c r="E141" s="48"/>
+      <c r="F141" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="G141" s="26"/>
-      <c r="H141" s="27"/>
-      <c r="I141" s="23" t="s">
+      <c r="G141" s="20"/>
+      <c r="H141" s="21"/>
+      <c r="I141" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="J141" s="24"/>
+      <c r="J141" s="18"/>
     </row>
     <row r="142" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="69"/>
-      <c r="B142" s="72"/>
-      <c r="C142" s="130"/>
-      <c r="D142" s="150"/>
-      <c r="E142" s="11"/>
-      <c r="F142" s="37" t="s">
+      <c r="A142" s="66"/>
+      <c r="B142" s="69"/>
+      <c r="C142" s="158"/>
+      <c r="D142" s="141"/>
+      <c r="E142" s="48"/>
+      <c r="F142" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="G142" s="26"/>
-      <c r="H142" s="27"/>
-      <c r="I142" s="23" t="s">
+      <c r="G142" s="20"/>
+      <c r="H142" s="21"/>
+      <c r="I142" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="J142" s="24"/>
+      <c r="J142" s="18"/>
     </row>
     <row r="143" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="69"/>
-      <c r="B143" s="72"/>
-      <c r="C143" s="130"/>
-      <c r="D143" s="150"/>
-      <c r="E143" s="11"/>
-      <c r="F143" s="37" t="s">
+      <c r="A143" s="66"/>
+      <c r="B143" s="69"/>
+      <c r="C143" s="158"/>
+      <c r="D143" s="141"/>
+      <c r="E143" s="48"/>
+      <c r="F143" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="G143" s="26"/>
-      <c r="H143" s="27"/>
-      <c r="I143" s="23" t="s">
+      <c r="G143" s="20"/>
+      <c r="H143" s="21"/>
+      <c r="I143" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J143" s="24" t="s">
+      <c r="J143" s="18" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A144" s="70"/>
-      <c r="B144" s="73"/>
-      <c r="C144" s="130"/>
-      <c r="D144" s="151"/>
-      <c r="E144" s="12"/>
-      <c r="F144" s="37"/>
-      <c r="G144" s="26"/>
-      <c r="H144" s="27"/>
-      <c r="I144" s="33"/>
-      <c r="J144" s="24"/>
+      <c r="A144" s="67"/>
+      <c r="B144" s="70"/>
+      <c r="C144" s="158"/>
+      <c r="D144" s="142"/>
+      <c r="E144" s="49"/>
+      <c r="F144" s="31"/>
+      <c r="G144" s="20"/>
+      <c r="H144" s="21"/>
+      <c r="I144" s="27"/>
+      <c r="J144" s="18"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F145" s="41"/>
-      <c r="G145" s="39"/>
-      <c r="H145" s="39"/>
+      <c r="F145" s="35"/>
+      <c r="G145" s="33"/>
+      <c r="H145" s="33"/>
     </row>
     <row r="146" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A146" s="155" t="s">
+      <c r="A146" s="143" t="s">
         <v>140</v>
       </c>
-      <c r="B146" s="156"/>
-      <c r="C146" s="156"/>
-      <c r="D146" s="156"/>
-      <c r="E146" s="157"/>
-      <c r="F146" s="152" t="s">
+      <c r="B146" s="144"/>
+      <c r="C146" s="144"/>
+      <c r="D146" s="144"/>
+      <c r="E146" s="145"/>
+      <c r="F146" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="G146" s="153"/>
-      <c r="H146" s="153"/>
-      <c r="I146" s="33" t="s">
+      <c r="G146" s="44"/>
+      <c r="H146" s="44"/>
+      <c r="I146" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="J146" s="24"/>
+      <c r="J146" s="18"/>
     </row>
     <row r="147" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A147" s="158"/>
-      <c r="B147" s="159"/>
-      <c r="C147" s="159"/>
-      <c r="D147" s="159"/>
-      <c r="E147" s="160"/>
-      <c r="F147" s="152" t="s">
+      <c r="A147" s="146"/>
+      <c r="B147" s="147"/>
+      <c r="C147" s="147"/>
+      <c r="D147" s="147"/>
+      <c r="E147" s="148"/>
+      <c r="F147" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="G147" s="153"/>
-      <c r="H147" s="153"/>
-      <c r="I147" s="33" t="s">
+      <c r="G147" s="44"/>
+      <c r="H147" s="44"/>
+      <c r="I147" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="J147" s="24"/>
+      <c r="J147" s="18"/>
     </row>
     <row r="148" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A148" s="158"/>
-      <c r="B148" s="159"/>
-      <c r="C148" s="159"/>
-      <c r="D148" s="159"/>
-      <c r="E148" s="160"/>
-      <c r="F148" s="152" t="s">
+      <c r="A148" s="146"/>
+      <c r="B148" s="147"/>
+      <c r="C148" s="147"/>
+      <c r="D148" s="147"/>
+      <c r="E148" s="148"/>
+      <c r="F148" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="G148" s="153"/>
-      <c r="H148" s="153"/>
-      <c r="I148" s="33" t="s">
+      <c r="G148" s="44"/>
+      <c r="H148" s="44"/>
+      <c r="I148" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="J148" s="24"/>
+      <c r="J148" s="18"/>
     </row>
     <row r="149" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A149" s="161"/>
-      <c r="B149" s="162"/>
-      <c r="C149" s="162"/>
-      <c r="D149" s="162"/>
-      <c r="E149" s="163"/>
-      <c r="F149" s="154" t="s">
+      <c r="A149" s="149"/>
+      <c r="B149" s="150"/>
+      <c r="C149" s="150"/>
+      <c r="D149" s="150"/>
+      <c r="E149" s="151"/>
+      <c r="F149" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="G149" s="153"/>
-      <c r="H149" s="153"/>
-      <c r="I149" s="33" t="s">
+      <c r="G149" s="44"/>
+      <c r="H149" s="44"/>
+      <c r="I149" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="J149" s="28" t="s">
+      <c r="J149" s="22" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="I150" s="44"/>
+      <c r="I150" s="38"/>
     </row>
     <row r="151" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A151" s="164" t="s">
+      <c r="A151" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="I151" s="44"/>
+      <c r="I151" s="38"/>
     </row>
     <row r="152" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="I152" s="44"/>
+      <c r="I152" s="38"/>
     </row>
     <row r="153" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="I153" s="44"/>
+      <c r="I153" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="114">
+  <mergeCells count="121">
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="F60:F65"/>
     <mergeCell ref="D121:D127"/>
     <mergeCell ref="D113:D120"/>
     <mergeCell ref="D128:D144"/>
@@ -4114,7 +4117,8 @@
     <mergeCell ref="G105:G112"/>
     <mergeCell ref="H110:H111"/>
     <mergeCell ref="H101:H102"/>
-    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="F59:H59"/>
     <mergeCell ref="G99:H99"/>
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="F13:H13"/>
@@ -4126,6 +4130,19 @@
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="F47:H47"/>
     <mergeCell ref="F51:H51"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G77:H77"/>
     <mergeCell ref="D5:D55"/>
     <mergeCell ref="D56:D112"/>
     <mergeCell ref="F72:F77"/>
@@ -4148,17 +4165,8 @@
     <mergeCell ref="F52:H52"/>
     <mergeCell ref="F54:H54"/>
     <mergeCell ref="F93:H93"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="E125:E127"/>
+    <mergeCell ref="E129:E131"/>
     <mergeCell ref="E92:E112"/>
     <mergeCell ref="E46:E49"/>
     <mergeCell ref="F48:H49"/>
@@ -4181,11 +4189,8 @@
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="F60:F65"/>
+    <mergeCell ref="E133:E137"/>
+    <mergeCell ref="E138:E144"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="C3:H3"/>
@@ -4205,6 +4210,9 @@
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="G61:G62"/>
     <mergeCell ref="G63:G64"/>
+    <mergeCell ref="E114:E116"/>
+    <mergeCell ref="E117:E120"/>
+    <mergeCell ref="E122:E124"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
